--- a/Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD7EA1-A33A-49F5-93F9-AF11B9C27BA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMFG" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,34 +741,34 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19210600</v>
+        <v>19578800</v>
       </c>
       <c r="E8" s="3">
-        <v>16959700</v>
+        <v>17284700</v>
       </c>
       <c r="F8" s="3">
-        <v>16572000</v>
+        <v>16889600</v>
       </c>
       <c r="G8" s="3">
-        <v>16781500</v>
+        <v>17103100</v>
       </c>
       <c r="H8" s="3">
-        <v>16010500</v>
+        <v>16317400</v>
       </c>
       <c r="I8" s="3">
-        <v>15307200</v>
+        <v>15600500</v>
       </c>
       <c r="J8" s="3">
-        <v>15170600</v>
+        <v>15461400</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +795,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,7 +822,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,7 +916,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -901,14 +936,14 @@
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>-1156500</v>
+        <v>-1178700</v>
       </c>
       <c r="J15" s="3">
-        <v>-1078700</v>
+        <v>-1099400</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7619300</v>
+        <v>7765300</v>
       </c>
       <c r="E17" s="3">
-        <v>6235700</v>
+        <v>6355200</v>
       </c>
       <c r="F17" s="3">
-        <v>4742500</v>
+        <v>4833400</v>
       </c>
       <c r="G17" s="3">
-        <v>3429300</v>
+        <v>3495000</v>
       </c>
       <c r="H17" s="3">
-        <v>2305400</v>
+        <v>2349600</v>
       </c>
       <c r="I17" s="3">
-        <v>2852300</v>
+        <v>2907000</v>
       </c>
       <c r="J17" s="3">
-        <v>2781900</v>
+        <v>2835200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11591300</v>
+        <v>11813400</v>
       </c>
       <c r="E18" s="3">
-        <v>10724000</v>
+        <v>10929500</v>
       </c>
       <c r="F18" s="3">
-        <v>11829400</v>
+        <v>12056100</v>
       </c>
       <c r="G18" s="3">
-        <v>13352200</v>
+        <v>13608100</v>
       </c>
       <c r="H18" s="3">
-        <v>13705100</v>
+        <v>13967800</v>
       </c>
       <c r="I18" s="3">
-        <v>12454800</v>
+        <v>12693500</v>
       </c>
       <c r="J18" s="3">
-        <v>12388700</v>
+        <v>12626200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,61 +1020,61 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1755800</v>
+        <v>-1789400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2037500</v>
+        <v>-2076600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3135300</v>
+        <v>-3195400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1738000</v>
+        <v>-1771300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1085800</v>
+        <v>-1106600</v>
       </c>
       <c r="I20" s="3">
-        <v>-4394500</v>
+        <v>-4478700</v>
       </c>
       <c r="J20" s="3">
-        <v>-4304400</v>
+        <v>-4386900</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12556500</v>
+        <v>12800200</v>
       </c>
       <c r="E21" s="3">
-        <v>11385200</v>
+        <v>11606500</v>
       </c>
       <c r="F21" s="3">
-        <v>11053700</v>
+        <v>11268200</v>
       </c>
       <c r="G21" s="3">
-        <v>13820300</v>
+        <v>14087600</v>
       </c>
       <c r="H21" s="3">
-        <v>14663400</v>
+        <v>14946800</v>
       </c>
       <c r="I21" s="3">
-        <v>10048600</v>
+        <v>10243400</v>
       </c>
       <c r="J21" s="3">
-        <v>9618400</v>
+        <v>9804500</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1066,61 +1101,61 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9835500</v>
+        <v>10024000</v>
       </c>
       <c r="E23" s="3">
-        <v>8686400</v>
+        <v>8852900</v>
       </c>
       <c r="F23" s="3">
-        <v>8694100</v>
+        <v>8860700</v>
       </c>
       <c r="G23" s="3">
-        <v>11614200</v>
+        <v>11836800</v>
       </c>
       <c r="H23" s="3">
-        <v>12619300</v>
+        <v>12861200</v>
       </c>
       <c r="I23" s="3">
-        <v>8060300</v>
+        <v>8214800</v>
       </c>
       <c r="J23" s="3">
-        <v>8084300</v>
+        <v>8239300</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2399500</v>
+        <v>2445500</v>
       </c>
       <c r="E24" s="3">
-        <v>1516300</v>
+        <v>1545400</v>
       </c>
       <c r="F24" s="3">
-        <v>1996200</v>
+        <v>2034400</v>
       </c>
       <c r="G24" s="3">
-        <v>3914900</v>
+        <v>3989900</v>
       </c>
       <c r="H24" s="3">
-        <v>4069600</v>
+        <v>4147600</v>
       </c>
       <c r="I24" s="3">
-        <v>2263200</v>
+        <v>2306600</v>
       </c>
       <c r="J24" s="3">
-        <v>4084100</v>
+        <v>4162400</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7436000</v>
+        <v>7578500</v>
       </c>
       <c r="E26" s="3">
-        <v>7170100</v>
+        <v>7307500</v>
       </c>
       <c r="F26" s="3">
-        <v>6697900</v>
+        <v>6826300</v>
       </c>
       <c r="G26" s="3">
-        <v>7699300</v>
+        <v>7846900</v>
       </c>
       <c r="H26" s="3">
-        <v>8549700</v>
+        <v>8713600</v>
       </c>
       <c r="I26" s="3">
-        <v>5797100</v>
+        <v>5908200</v>
       </c>
       <c r="J26" s="3">
-        <v>4000200</v>
+        <v>4076900</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6513800</v>
+        <v>6638700</v>
       </c>
       <c r="E27" s="3">
-        <v>6266800</v>
+        <v>6386900</v>
       </c>
       <c r="F27" s="3">
-        <v>5736100</v>
+        <v>5846100</v>
       </c>
       <c r="G27" s="3">
-        <v>6684500</v>
+        <v>6812600</v>
       </c>
       <c r="H27" s="3">
-        <v>7409600</v>
+        <v>7551600</v>
       </c>
       <c r="I27" s="3">
-        <v>3652700</v>
+        <v>3722700</v>
       </c>
       <c r="J27" s="3">
-        <v>3000900</v>
+        <v>3058400</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1755800</v>
+        <v>1789400</v>
       </c>
       <c r="E32" s="3">
-        <v>2037500</v>
+        <v>2076600</v>
       </c>
       <c r="F32" s="3">
-        <v>3135300</v>
+        <v>3195400</v>
       </c>
       <c r="G32" s="3">
-        <v>1738000</v>
+        <v>1771300</v>
       </c>
       <c r="H32" s="3">
-        <v>1085800</v>
+        <v>1106600</v>
       </c>
       <c r="I32" s="3">
-        <v>4394500</v>
+        <v>4478700</v>
       </c>
       <c r="J32" s="3">
-        <v>4304400</v>
+        <v>4386900</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6513800</v>
+        <v>6638700</v>
       </c>
       <c r="E33" s="3">
-        <v>6266800</v>
+        <v>6386900</v>
       </c>
       <c r="F33" s="3">
-        <v>5736100</v>
+        <v>5846100</v>
       </c>
       <c r="G33" s="3">
-        <v>6684500</v>
+        <v>6812600</v>
       </c>
       <c r="H33" s="3">
-        <v>7409600</v>
+        <v>7551600</v>
       </c>
       <c r="I33" s="3">
-        <v>3652700</v>
+        <v>3722700</v>
       </c>
       <c r="J33" s="3">
-        <v>3000900</v>
+        <v>3058400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6513800</v>
+        <v>6638700</v>
       </c>
       <c r="E35" s="3">
-        <v>6266800</v>
+        <v>6386900</v>
       </c>
       <c r="F35" s="3">
-        <v>5736100</v>
+        <v>5846100</v>
       </c>
       <c r="G35" s="3">
-        <v>6684500</v>
+        <v>6812600</v>
       </c>
       <c r="H35" s="3">
-        <v>7409600</v>
+        <v>7551600</v>
       </c>
       <c r="I35" s="3">
-        <v>3652700</v>
+        <v>3722700</v>
       </c>
       <c r="J35" s="3">
-        <v>3000900</v>
+        <v>3058400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,61 +1510,61 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>476608000</v>
+        <v>485743000</v>
       </c>
       <c r="E41" s="3">
-        <v>415697000</v>
+        <v>423665000</v>
       </c>
       <c r="F41" s="3">
-        <v>379541000</v>
+        <v>386815000</v>
       </c>
       <c r="G41" s="3">
-        <v>352573000</v>
+        <v>359331000</v>
       </c>
       <c r="H41" s="3">
-        <v>292631000</v>
+        <v>298240000</v>
       </c>
       <c r="I41" s="3">
-        <v>212507000</v>
+        <v>216580000</v>
       </c>
       <c r="J41" s="3">
-        <v>82876800</v>
+        <v>84465200</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>208711000</v>
+        <v>212711000</v>
       </c>
       <c r="E42" s="3">
-        <v>216713000</v>
+        <v>220866000</v>
       </c>
       <c r="F42" s="3">
-        <v>210660000</v>
+        <v>214697000</v>
       </c>
       <c r="G42" s="3">
-        <v>197166000</v>
+        <v>200945000</v>
       </c>
       <c r="H42" s="3">
-        <v>158346000</v>
+        <v>161381000</v>
       </c>
       <c r="I42" s="3">
-        <v>178602000</v>
+        <v>182025000</v>
       </c>
       <c r="J42" s="3">
-        <v>38989000</v>
+        <v>39736300</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1556,7 +1591,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,7 +1618,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1610,7 +1645,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1637,88 +1672,88 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6059500</v>
+        <v>6175700</v>
       </c>
       <c r="E47" s="3">
-        <v>5362300</v>
+        <v>5465100</v>
       </c>
       <c r="F47" s="3">
-        <v>5414400</v>
+        <v>5518200</v>
       </c>
       <c r="G47" s="3">
-        <v>5177600</v>
+        <v>5276800</v>
       </c>
       <c r="H47" s="3">
-        <v>3303000</v>
+        <v>3366300</v>
       </c>
       <c r="I47" s="3">
-        <v>4597900</v>
+        <v>4686000</v>
       </c>
       <c r="J47" s="3">
-        <v>1833100</v>
+        <v>1868200</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30824400</v>
+        <v>31415200</v>
       </c>
       <c r="E48" s="3">
-        <v>27511600</v>
+        <v>28038800</v>
       </c>
       <c r="F48" s="3">
-        <v>25895300</v>
+        <v>26391600</v>
       </c>
       <c r="G48" s="3">
-        <v>24577500</v>
+        <v>25048500</v>
       </c>
       <c r="H48" s="3">
-        <v>20816000</v>
+        <v>21215000</v>
       </c>
       <c r="I48" s="3">
-        <v>35336600</v>
+        <v>36013800</v>
       </c>
       <c r="J48" s="3">
-        <v>19866900</v>
+        <v>20247600</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7677700</v>
+        <v>7824900</v>
       </c>
       <c r="E49" s="3">
-        <v>8395500</v>
+        <v>8556400</v>
       </c>
       <c r="F49" s="3">
-        <v>7790200</v>
+        <v>7939500</v>
       </c>
       <c r="G49" s="3">
-        <v>7269500</v>
+        <v>7408800</v>
       </c>
       <c r="H49" s="3">
-        <v>7272500</v>
+        <v>7411900</v>
       </c>
       <c r="I49" s="3">
-        <v>15026900</v>
+        <v>15314900</v>
       </c>
       <c r="J49" s="3">
-        <v>15951200</v>
+        <v>16256900</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3645800</v>
+        <v>3715700</v>
       </c>
       <c r="E52" s="3">
-        <v>3352200</v>
+        <v>3416400</v>
       </c>
       <c r="F52" s="3">
-        <v>2919200</v>
+        <v>2975100</v>
       </c>
       <c r="G52" s="3">
-        <v>4471300</v>
+        <v>4557000</v>
       </c>
       <c r="H52" s="3">
-        <v>2599900</v>
+        <v>2649700</v>
       </c>
       <c r="I52" s="3">
-        <v>7608000</v>
+        <v>7753800</v>
       </c>
       <c r="J52" s="3">
-        <v>8198000</v>
+        <v>8355100</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1765570000</v>
+        <v>1799400000</v>
       </c>
       <c r="E54" s="3">
-        <v>1754410000</v>
+        <v>1788040000</v>
       </c>
       <c r="F54" s="3">
-        <v>1655020000</v>
+        <v>1686740000</v>
       </c>
       <c r="G54" s="3">
-        <v>1627140000</v>
+        <v>1658320000</v>
       </c>
       <c r="H54" s="3">
-        <v>1432810000</v>
+        <v>1460270000</v>
       </c>
       <c r="I54" s="3">
-        <v>1310580000</v>
+        <v>1335700000</v>
       </c>
       <c r="J54" s="3">
-        <v>1257770000</v>
+        <v>1281880000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,7 +1914,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1906,7 +1941,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1933,34 +1968,34 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>779700</v>
+        <v>794700</v>
       </c>
       <c r="E59" s="3">
-        <v>713300</v>
+        <v>727000</v>
       </c>
       <c r="F59" s="3">
-        <v>629100</v>
+        <v>641100</v>
       </c>
       <c r="G59" s="3">
-        <v>680400</v>
+        <v>693400</v>
       </c>
       <c r="H59" s="3">
-        <v>659400</v>
+        <v>672000</v>
       </c>
       <c r="I59" s="3">
-        <v>4437000</v>
+        <v>4522000</v>
       </c>
       <c r="J59" s="3">
-        <v>2315400</v>
+        <v>2359800</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1987,61 +2022,61 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>176397000</v>
+        <v>179778000</v>
       </c>
       <c r="E61" s="3">
-        <v>167784000</v>
+        <v>171000000</v>
       </c>
       <c r="F61" s="3">
-        <v>139111000</v>
+        <v>141777000</v>
       </c>
       <c r="G61" s="3">
-        <v>142832000</v>
+        <v>145570000</v>
       </c>
       <c r="H61" s="3">
-        <v>107431000</v>
+        <v>109490000</v>
       </c>
       <c r="I61" s="3">
-        <v>57438100</v>
+        <v>58538900</v>
       </c>
       <c r="J61" s="3">
-        <v>92362100</v>
+        <v>94132200</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6341600</v>
+        <v>6463100</v>
       </c>
       <c r="E62" s="3">
-        <v>5541000</v>
+        <v>5647200</v>
       </c>
       <c r="F62" s="3">
-        <v>6192000</v>
+        <v>6310700</v>
       </c>
       <c r="G62" s="3">
-        <v>7841100</v>
+        <v>7991400</v>
       </c>
       <c r="H62" s="3">
-        <v>3683000</v>
+        <v>3753600</v>
       </c>
       <c r="I62" s="3">
-        <v>5884100</v>
+        <v>5996900</v>
       </c>
       <c r="J62" s="3">
-        <v>1130400</v>
+        <v>1152100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1673380000</v>
+        <v>1705450000</v>
       </c>
       <c r="E66" s="3">
-        <v>1668060000</v>
+        <v>1700030000</v>
       </c>
       <c r="F66" s="3">
-        <v>1575930000</v>
+        <v>1606130000</v>
       </c>
       <c r="G66" s="3">
-        <v>1547090000</v>
+        <v>1576740000</v>
       </c>
       <c r="H66" s="3">
-        <v>1368230000</v>
+        <v>1394450000</v>
       </c>
       <c r="I66" s="3">
-        <v>1253260000</v>
+        <v>1277280000</v>
       </c>
       <c r="J66" s="3">
-        <v>1210120000</v>
+        <v>1233310000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>49276400</v>
+        <v>50220800</v>
       </c>
       <c r="E72" s="3">
-        <v>44706900</v>
+        <v>45563800</v>
       </c>
       <c r="F72" s="3">
-        <v>40246300</v>
+        <v>41017700</v>
       </c>
       <c r="G72" s="3">
-        <v>36373300</v>
+        <v>37070400</v>
       </c>
       <c r="H72" s="3">
-        <v>30884200</v>
+        <v>31476200</v>
       </c>
       <c r="I72" s="3">
-        <v>55899000</v>
+        <v>56970300</v>
       </c>
       <c r="J72" s="3">
-        <v>21356600</v>
+        <v>21765900</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>92188500</v>
+        <v>93955300</v>
       </c>
       <c r="E76" s="3">
-        <v>86349600</v>
+        <v>88004600</v>
       </c>
       <c r="F76" s="3">
-        <v>79090700</v>
+        <v>80606500</v>
       </c>
       <c r="G76" s="3">
-        <v>80047600</v>
+        <v>81581800</v>
       </c>
       <c r="H76" s="3">
-        <v>64582300</v>
+        <v>65820000</v>
       </c>
       <c r="I76" s="3">
-        <v>57319000</v>
+        <v>58417600</v>
       </c>
       <c r="J76" s="3">
-        <v>47654300</v>
+        <v>48567700</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6513800</v>
+        <v>6638700</v>
       </c>
       <c r="E81" s="3">
-        <v>6266800</v>
+        <v>6386900</v>
       </c>
       <c r="F81" s="3">
-        <v>5736100</v>
+        <v>5846100</v>
       </c>
       <c r="G81" s="3">
-        <v>6684500</v>
+        <v>6812600</v>
       </c>
       <c r="H81" s="3">
-        <v>7409600</v>
+        <v>7551600</v>
       </c>
       <c r="I81" s="3">
-        <v>3652700</v>
+        <v>3722700</v>
       </c>
       <c r="J81" s="3">
-        <v>3000900</v>
+        <v>3058400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2721000</v>
+        <v>2773100</v>
       </c>
       <c r="E83" s="3">
-        <v>2698800</v>
+        <v>2750500</v>
       </c>
       <c r="F83" s="3">
-        <v>2359600</v>
+        <v>2404800</v>
       </c>
       <c r="G83" s="3">
-        <v>2206100</v>
+        <v>2248400</v>
       </c>
       <c r="H83" s="3">
-        <v>2044100</v>
+        <v>2083300</v>
       </c>
       <c r="I83" s="3">
-        <v>1988200</v>
+        <v>2026400</v>
       </c>
       <c r="J83" s="3">
-        <v>1534100</v>
+        <v>1563500</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82884500</v>
+        <v>84473000</v>
       </c>
       <c r="E89" s="3">
-        <v>40068600</v>
+        <v>40836600</v>
       </c>
       <c r="F89" s="3">
-        <v>-9998700</v>
+        <v>-10190300</v>
       </c>
       <c r="G89" s="3">
-        <v>72623900</v>
+        <v>74015800</v>
       </c>
       <c r="H89" s="3">
-        <v>73654300</v>
+        <v>75065900</v>
       </c>
       <c r="I89" s="3">
-        <v>21052300</v>
+        <v>21455800</v>
       </c>
       <c r="J89" s="3">
-        <v>11717400</v>
+        <v>11941900</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7527500</v>
+        <v>-6441600</v>
       </c>
       <c r="E91" s="3">
-        <v>-5686700</v>
+        <v>-4482200</v>
       </c>
       <c r="F91" s="3">
-        <v>-6102900</v>
+        <v>-4784500</v>
       </c>
       <c r="G91" s="3">
-        <v>-6422400</v>
+        <v>-5233900</v>
       </c>
       <c r="H91" s="3">
-        <v>-5258200</v>
+        <v>-4204900</v>
       </c>
       <c r="I91" s="3">
-        <v>-7028600</v>
+        <v>-5244500</v>
       </c>
       <c r="J91" s="3">
-        <v>-2051900</v>
+        <v>-1175100</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30116300</v>
+        <v>-30693500</v>
       </c>
       <c r="E94" s="3">
-        <v>5156500</v>
+        <v>5255400</v>
       </c>
       <c r="F94" s="3">
-        <v>46487200</v>
+        <v>47378200</v>
       </c>
       <c r="G94" s="3">
-        <v>-12925300</v>
+        <v>-13173000</v>
       </c>
       <c r="H94" s="3">
-        <v>128797000</v>
+        <v>131265500</v>
       </c>
       <c r="I94" s="3">
-        <v>12488100</v>
+        <v>12727400</v>
       </c>
       <c r="J94" s="3">
-        <v>-21927200</v>
+        <v>-22347400</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1938700</v>
+        <v>-1975900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1819000</v>
+        <v>-1853900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1880000</v>
+        <v>-1916000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1516000</v>
+        <v>-1545100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1507700</v>
+        <v>-1536600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2398500</v>
+        <v>-2444500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1258800</v>
+        <v>-1283000</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3108700</v>
+        <v>-3168200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1477100</v>
+        <v>-1505400</v>
       </c>
       <c r="F100" s="3">
-        <v>-496700</v>
+        <v>-506200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2684000</v>
+        <v>-2735400</v>
       </c>
       <c r="H100" s="3">
-        <v>-9214300</v>
+        <v>-9390900</v>
       </c>
       <c r="I100" s="3">
-        <v>-6562500</v>
+        <v>-6688300</v>
       </c>
       <c r="J100" s="3">
-        <v>-2707100</v>
+        <v>-2759000</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-832700</v>
+        <v>-848600</v>
       </c>
       <c r="E101" s="3">
-        <v>-93600</v>
+        <v>-95400</v>
       </c>
       <c r="F101" s="3">
-        <v>-883300</v>
+        <v>-900200</v>
       </c>
       <c r="G101" s="3">
-        <v>1576300</v>
+        <v>1606500</v>
       </c>
       <c r="H101" s="3">
-        <v>49500</v>
+        <v>50500</v>
       </c>
       <c r="I101" s="3">
-        <v>5538800</v>
+        <v>5645000</v>
       </c>
       <c r="J101" s="3">
-        <v>-547100</v>
+        <v>-557600</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>48826900</v>
+        <v>49762700</v>
       </c>
       <c r="E102" s="3">
-        <v>43654500</v>
+        <v>44491100</v>
       </c>
       <c r="F102" s="3">
-        <v>35108600</v>
+        <v>35781500</v>
       </c>
       <c r="G102" s="3">
-        <v>58590900</v>
+        <v>59713900</v>
       </c>
       <c r="H102" s="3">
-        <v>193286600</v>
+        <v>196991000</v>
       </c>
       <c r="I102" s="3">
-        <v>32516700</v>
+        <v>33139900</v>
       </c>
       <c r="J102" s="3">
-        <v>-13464000</v>
+        <v>-13722100</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/SMFG_YR_FIN.xlsx
+++ b/Financials/Yearly/SMFG_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FD7EA1-A33A-49F5-93F9-AF11B9C27BA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SMFG" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>SMFG</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,86 +654,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19578800</v>
+        <v>22624200</v>
       </c>
       <c r="E8" s="3">
-        <v>17284700</v>
+        <v>19687000</v>
       </c>
       <c r="F8" s="3">
-        <v>16889600</v>
+        <v>17380300</v>
       </c>
       <c r="G8" s="3">
-        <v>17103100</v>
+        <v>16983000</v>
       </c>
       <c r="H8" s="3">
-        <v>16317400</v>
+        <v>17197700</v>
       </c>
       <c r="I8" s="3">
-        <v>15600500</v>
+        <v>16407600</v>
       </c>
       <c r="J8" s="3">
+        <v>15686800</v>
+      </c>
+      <c r="K8" s="3">
         <v>15461400</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,9 +764,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,9 +794,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,9 +868,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -914,9 +898,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -935,15 +922,18 @@
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>-1178700</v>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="3">
+        <v>-1185200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1099400</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7765300</v>
+        <v>11327400</v>
       </c>
       <c r="E17" s="3">
-        <v>6355200</v>
+        <v>7808300</v>
       </c>
       <c r="F17" s="3">
-        <v>4833400</v>
+        <v>6390400</v>
       </c>
       <c r="G17" s="3">
-        <v>3495000</v>
+        <v>4860200</v>
       </c>
       <c r="H17" s="3">
-        <v>2349600</v>
+        <v>3514300</v>
       </c>
       <c r="I17" s="3">
-        <v>2907000</v>
+        <v>2362600</v>
       </c>
       <c r="J17" s="3">
+        <v>2923100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2835200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11813400</v>
+        <v>11296800</v>
       </c>
       <c r="E18" s="3">
-        <v>10929500</v>
+        <v>11878800</v>
       </c>
       <c r="F18" s="3">
-        <v>12056100</v>
+        <v>10990000</v>
       </c>
       <c r="G18" s="3">
-        <v>13608100</v>
+        <v>12122800</v>
       </c>
       <c r="H18" s="3">
-        <v>13967800</v>
+        <v>13683400</v>
       </c>
       <c r="I18" s="3">
-        <v>12693500</v>
+        <v>14045000</v>
       </c>
       <c r="J18" s="3">
+        <v>12763800</v>
+      </c>
+      <c r="K18" s="3">
         <v>12626200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,62 +1016,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1789400</v>
+        <v>-1083500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2076600</v>
+        <v>-1799300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3195400</v>
+        <v>-2088100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1771300</v>
+        <v>-3213100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1106600</v>
+        <v>-1781100</v>
       </c>
       <c r="I20" s="3">
-        <v>-4478700</v>
+        <v>-1112800</v>
       </c>
       <c r="J20" s="3">
+        <v>-4503500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4386900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12800200</v>
+        <v>12900100</v>
       </c>
       <c r="E21" s="3">
-        <v>11606500</v>
+        <v>12874000</v>
       </c>
       <c r="F21" s="3">
-        <v>11268200</v>
+        <v>11673700</v>
       </c>
       <c r="G21" s="3">
-        <v>14087600</v>
+        <v>11333200</v>
       </c>
       <c r="H21" s="3">
-        <v>14946800</v>
+        <v>14168000</v>
       </c>
       <c r="I21" s="3">
-        <v>10243400</v>
+        <v>15031700</v>
       </c>
       <c r="J21" s="3">
+        <v>10302300</v>
+      </c>
+      <c r="K21" s="3">
         <v>9804500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,63 +1103,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10024000</v>
+        <v>10213300</v>
       </c>
       <c r="E23" s="3">
-        <v>8852900</v>
+        <v>10079400</v>
       </c>
       <c r="F23" s="3">
-        <v>8860700</v>
+        <v>8901900</v>
       </c>
       <c r="G23" s="3">
-        <v>11836800</v>
+        <v>8909700</v>
       </c>
       <c r="H23" s="3">
-        <v>12861200</v>
+        <v>11902200</v>
       </c>
       <c r="I23" s="3">
-        <v>8214800</v>
+        <v>12932300</v>
       </c>
       <c r="J23" s="3">
+        <v>8260200</v>
+      </c>
+      <c r="K23" s="3">
         <v>8239300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2445500</v>
+        <v>3012600</v>
       </c>
       <c r="E24" s="3">
-        <v>1545400</v>
+        <v>2459100</v>
       </c>
       <c r="F24" s="3">
-        <v>2034400</v>
+        <v>1553900</v>
       </c>
       <c r="G24" s="3">
-        <v>3989900</v>
+        <v>2045700</v>
       </c>
       <c r="H24" s="3">
-        <v>4147600</v>
+        <v>4012000</v>
       </c>
       <c r="I24" s="3">
-        <v>2306600</v>
+        <v>4170500</v>
       </c>
       <c r="J24" s="3">
+        <v>2319400</v>
+      </c>
+      <c r="K24" s="3">
         <v>4162400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7578500</v>
+        <v>7200700</v>
       </c>
       <c r="E26" s="3">
-        <v>7307500</v>
+        <v>7620400</v>
       </c>
       <c r="F26" s="3">
-        <v>6826300</v>
+        <v>7347900</v>
       </c>
       <c r="G26" s="3">
-        <v>7846900</v>
+        <v>6864100</v>
       </c>
       <c r="H26" s="3">
-        <v>8713600</v>
+        <v>7890300</v>
       </c>
       <c r="I26" s="3">
-        <v>5908200</v>
+        <v>8761800</v>
       </c>
       <c r="J26" s="3">
+        <v>5940900</v>
+      </c>
+      <c r="K26" s="3">
         <v>4076900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6638700</v>
+        <v>6605500</v>
       </c>
       <c r="E27" s="3">
-        <v>6386900</v>
+        <v>6675400</v>
       </c>
       <c r="F27" s="3">
-        <v>5846100</v>
+        <v>6422300</v>
       </c>
       <c r="G27" s="3">
-        <v>6812600</v>
+        <v>5878400</v>
       </c>
       <c r="H27" s="3">
-        <v>7551600</v>
+        <v>6850300</v>
       </c>
       <c r="I27" s="3">
-        <v>3722700</v>
+        <v>7593400</v>
       </c>
       <c r="J27" s="3">
+        <v>3743300</v>
+      </c>
+      <c r="K27" s="3">
         <v>3058400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1789400</v>
+        <v>1083500</v>
       </c>
       <c r="E32" s="3">
-        <v>2076600</v>
+        <v>1799300</v>
       </c>
       <c r="F32" s="3">
-        <v>3195400</v>
+        <v>2088100</v>
       </c>
       <c r="G32" s="3">
-        <v>1771300</v>
+        <v>3213100</v>
       </c>
       <c r="H32" s="3">
-        <v>1106600</v>
+        <v>1781100</v>
       </c>
       <c r="I32" s="3">
-        <v>4478700</v>
+        <v>1112800</v>
       </c>
       <c r="J32" s="3">
+        <v>4503500</v>
+      </c>
+      <c r="K32" s="3">
         <v>4386900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6638700</v>
+        <v>6605500</v>
       </c>
       <c r="E33" s="3">
-        <v>6386900</v>
+        <v>6675400</v>
       </c>
       <c r="F33" s="3">
-        <v>5846100</v>
+        <v>6422300</v>
       </c>
       <c r="G33" s="3">
-        <v>6812600</v>
+        <v>5878400</v>
       </c>
       <c r="H33" s="3">
-        <v>7551600</v>
+        <v>6850300</v>
       </c>
       <c r="I33" s="3">
-        <v>3722700</v>
+        <v>7593400</v>
       </c>
       <c r="J33" s="3">
+        <v>3743300</v>
+      </c>
+      <c r="K33" s="3">
         <v>3058400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6638700</v>
+        <v>6605500</v>
       </c>
       <c r="E35" s="3">
-        <v>6386900</v>
+        <v>6675400</v>
       </c>
       <c r="F35" s="3">
-        <v>5846100</v>
+        <v>6422300</v>
       </c>
       <c r="G35" s="3">
-        <v>6812600</v>
+        <v>5878400</v>
       </c>
       <c r="H35" s="3">
-        <v>7551600</v>
+        <v>6850300</v>
       </c>
       <c r="I35" s="3">
-        <v>3722700</v>
+        <v>7593400</v>
       </c>
       <c r="J35" s="3">
+        <v>3743300</v>
+      </c>
+      <c r="K35" s="3">
         <v>3058400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,62 +1559,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>485743000</v>
+        <v>521869000</v>
       </c>
       <c r="E41" s="3">
-        <v>423665000</v>
+        <v>488429000</v>
       </c>
       <c r="F41" s="3">
-        <v>386815000</v>
+        <v>426008000</v>
       </c>
       <c r="G41" s="3">
-        <v>359331000</v>
+        <v>388954000</v>
       </c>
       <c r="H41" s="3">
-        <v>298240000</v>
+        <v>361318000</v>
       </c>
       <c r="I41" s="3">
-        <v>216580000</v>
+        <v>299889000</v>
       </c>
       <c r="J41" s="3">
+        <v>217778000</v>
+      </c>
+      <c r="K41" s="3">
         <v>84465200</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>212711000</v>
+        <v>223935000</v>
       </c>
       <c r="E42" s="3">
-        <v>220866000</v>
+        <v>213888000</v>
       </c>
       <c r="F42" s="3">
-        <v>214697000</v>
+        <v>222088000</v>
       </c>
       <c r="G42" s="3">
-        <v>200945000</v>
+        <v>215885000</v>
       </c>
       <c r="H42" s="3">
-        <v>161381000</v>
+        <v>202056000</v>
       </c>
       <c r="I42" s="3">
-        <v>182025000</v>
+        <v>162273000</v>
       </c>
       <c r="J42" s="3">
+        <v>183032000</v>
+      </c>
+      <c r="K42" s="3">
         <v>39736300</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1589,9 +1646,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1616,9 +1676,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1643,9 +1706,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1670,90 +1736,102 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6175700</v>
+        <v>8870500</v>
       </c>
       <c r="E47" s="3">
-        <v>5465100</v>
+        <v>6209800</v>
       </c>
       <c r="F47" s="3">
-        <v>5518200</v>
+        <v>5495300</v>
       </c>
       <c r="G47" s="3">
-        <v>5276800</v>
+        <v>5548700</v>
       </c>
       <c r="H47" s="3">
-        <v>3366300</v>
+        <v>5306000</v>
       </c>
       <c r="I47" s="3">
-        <v>4686000</v>
+        <v>3384900</v>
       </c>
       <c r="J47" s="3">
+        <v>4711900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1868200</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31415200</v>
+        <v>13677800</v>
       </c>
       <c r="E48" s="3">
-        <v>28038800</v>
+        <v>31588900</v>
       </c>
       <c r="F48" s="3">
-        <v>26391600</v>
+        <v>28193900</v>
       </c>
       <c r="G48" s="3">
-        <v>25048500</v>
+        <v>26537600</v>
       </c>
       <c r="H48" s="3">
-        <v>21215000</v>
+        <v>25187100</v>
       </c>
       <c r="I48" s="3">
-        <v>36013800</v>
+        <v>21332300</v>
       </c>
       <c r="J48" s="3">
+        <v>36213000</v>
+      </c>
+      <c r="K48" s="3">
         <v>20247600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7824900</v>
+        <v>6992300</v>
       </c>
       <c r="E49" s="3">
-        <v>8556400</v>
+        <v>7868200</v>
       </c>
       <c r="F49" s="3">
-        <v>7939500</v>
+        <v>8603700</v>
       </c>
       <c r="G49" s="3">
-        <v>7408800</v>
+        <v>7983400</v>
       </c>
       <c r="H49" s="3">
-        <v>7411900</v>
+        <v>7449800</v>
       </c>
       <c r="I49" s="3">
-        <v>15314900</v>
+        <v>7452800</v>
       </c>
       <c r="J49" s="3">
+        <v>15399600</v>
+      </c>
+      <c r="K49" s="3">
         <v>16256900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3715700</v>
+        <v>3360400</v>
       </c>
       <c r="E52" s="3">
-        <v>3416400</v>
+        <v>3736200</v>
       </c>
       <c r="F52" s="3">
-        <v>2975100</v>
+        <v>3435300</v>
       </c>
       <c r="G52" s="3">
-        <v>4557000</v>
+        <v>2991600</v>
       </c>
       <c r="H52" s="3">
-        <v>2649700</v>
+        <v>4582200</v>
       </c>
       <c r="I52" s="3">
-        <v>7753800</v>
+        <v>2664400</v>
       </c>
       <c r="J52" s="3">
+        <v>7796700</v>
+      </c>
+      <c r="K52" s="3">
         <v>8355100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1799400000</v>
+        <v>1851260000</v>
       </c>
       <c r="E54" s="3">
-        <v>1788040000</v>
+        <v>1809360000</v>
       </c>
       <c r="F54" s="3">
-        <v>1686740000</v>
+        <v>1797930000</v>
       </c>
       <c r="G54" s="3">
-        <v>1658320000</v>
+        <v>1696070000</v>
       </c>
       <c r="H54" s="3">
-        <v>1460270000</v>
+        <v>1667490000</v>
       </c>
       <c r="I54" s="3">
-        <v>1335700000</v>
+        <v>1468350000</v>
       </c>
       <c r="J54" s="3">
+        <v>1343090000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1281880000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,8 +2007,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1939,9 +2034,12 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1966,36 +2064,42 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>794700</v>
+        <v>667600</v>
       </c>
       <c r="E59" s="3">
-        <v>727000</v>
+        <v>799100</v>
       </c>
       <c r="F59" s="3">
-        <v>641100</v>
+        <v>731000</v>
       </c>
       <c r="G59" s="3">
-        <v>693400</v>
+        <v>644700</v>
       </c>
       <c r="H59" s="3">
-        <v>672000</v>
+        <v>697200</v>
       </c>
       <c r="I59" s="3">
-        <v>4522000</v>
+        <v>675800</v>
       </c>
       <c r="J59" s="3">
+        <v>4547000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2359800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2020,63 +2124,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>179778000</v>
+        <v>180748000</v>
       </c>
       <c r="E61" s="3">
-        <v>171000000</v>
+        <v>180772000</v>
       </c>
       <c r="F61" s="3">
-        <v>141777000</v>
+        <v>171946000</v>
       </c>
       <c r="G61" s="3">
-        <v>145570000</v>
+        <v>142561000</v>
       </c>
       <c r="H61" s="3">
-        <v>109490000</v>
+        <v>146375000</v>
       </c>
       <c r="I61" s="3">
-        <v>58538900</v>
+        <v>110096000</v>
       </c>
       <c r="J61" s="3">
+        <v>58862700</v>
+      </c>
+      <c r="K61" s="3">
         <v>94132200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6463100</v>
+        <v>5672100</v>
       </c>
       <c r="E62" s="3">
-        <v>5647200</v>
+        <v>6498900</v>
       </c>
       <c r="F62" s="3">
-        <v>6310700</v>
+        <v>5678400</v>
       </c>
       <c r="G62" s="3">
-        <v>7991400</v>
+        <v>6345600</v>
       </c>
       <c r="H62" s="3">
-        <v>3753600</v>
+        <v>8035600</v>
       </c>
       <c r="I62" s="3">
-        <v>5996900</v>
+        <v>3774400</v>
       </c>
       <c r="J62" s="3">
+        <v>6030000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1152100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1705450000</v>
+        <v>1753330000</v>
       </c>
       <c r="E66" s="3">
-        <v>1700030000</v>
+        <v>1714880000</v>
       </c>
       <c r="F66" s="3">
-        <v>1606130000</v>
+        <v>1709430000</v>
       </c>
       <c r="G66" s="3">
-        <v>1576740000</v>
+        <v>1615010000</v>
       </c>
       <c r="H66" s="3">
-        <v>1394450000</v>
+        <v>1585460000</v>
       </c>
       <c r="I66" s="3">
-        <v>1277280000</v>
+        <v>1402160000</v>
       </c>
       <c r="J66" s="3">
+        <v>1284350000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1233310000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50220800</v>
+        <v>54512700</v>
       </c>
       <c r="E72" s="3">
-        <v>45563800</v>
+        <v>50498500</v>
       </c>
       <c r="F72" s="3">
-        <v>41017700</v>
+        <v>45815800</v>
       </c>
       <c r="G72" s="3">
-        <v>37070400</v>
+        <v>41244600</v>
       </c>
       <c r="H72" s="3">
-        <v>31476200</v>
+        <v>37275400</v>
       </c>
       <c r="I72" s="3">
-        <v>56970300</v>
+        <v>31650300</v>
       </c>
       <c r="J72" s="3">
+        <v>57285400</v>
+      </c>
+      <c r="K72" s="3">
         <v>21765900</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>93955300</v>
+        <v>97927200</v>
       </c>
       <c r="E76" s="3">
-        <v>88004600</v>
+        <v>94475000</v>
       </c>
       <c r="F76" s="3">
-        <v>80606500</v>
+        <v>88491300</v>
       </c>
       <c r="G76" s="3">
-        <v>81581800</v>
+        <v>81052300</v>
       </c>
       <c r="H76" s="3">
-        <v>65820000</v>
+        <v>82033000</v>
       </c>
       <c r="I76" s="3">
-        <v>58417600</v>
+        <v>66184100</v>
       </c>
       <c r="J76" s="3">
+        <v>58740700</v>
+      </c>
+      <c r="K76" s="3">
         <v>48567700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6638700</v>
+        <v>6605500</v>
       </c>
       <c r="E81" s="3">
-        <v>6386900</v>
+        <v>6675400</v>
       </c>
       <c r="F81" s="3">
-        <v>5846100</v>
+        <v>6422300</v>
       </c>
       <c r="G81" s="3">
-        <v>6812600</v>
+        <v>5878400</v>
       </c>
       <c r="H81" s="3">
-        <v>7551600</v>
+        <v>6850300</v>
       </c>
       <c r="I81" s="3">
-        <v>3722700</v>
+        <v>7593400</v>
       </c>
       <c r="J81" s="3">
+        <v>3743300</v>
+      </c>
+      <c r="K81" s="3">
         <v>3058400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2773100</v>
+        <v>2680900</v>
       </c>
       <c r="E83" s="3">
-        <v>2750500</v>
+        <v>2788400</v>
       </c>
       <c r="F83" s="3">
-        <v>2404800</v>
+        <v>2765700</v>
       </c>
       <c r="G83" s="3">
-        <v>2248400</v>
+        <v>2418100</v>
       </c>
       <c r="H83" s="3">
-        <v>2083300</v>
+        <v>2260800</v>
       </c>
       <c r="I83" s="3">
-        <v>2026400</v>
+        <v>2094800</v>
       </c>
       <c r="J83" s="3">
+        <v>2037600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1563500</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>84473000</v>
+        <v>41793600</v>
       </c>
       <c r="E89" s="3">
-        <v>40836600</v>
+        <v>84940300</v>
       </c>
       <c r="F89" s="3">
-        <v>-10190300</v>
+        <v>41062400</v>
       </c>
       <c r="G89" s="3">
-        <v>74015800</v>
+        <v>-10246700</v>
       </c>
       <c r="H89" s="3">
-        <v>75065900</v>
+        <v>74425200</v>
       </c>
       <c r="I89" s="3">
-        <v>21455800</v>
+        <v>75481100</v>
       </c>
       <c r="J89" s="3">
+        <v>21574500</v>
+      </c>
+      <c r="K89" s="3">
         <v>11941900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6441600</v>
+        <v>-4637800</v>
       </c>
       <c r="E91" s="3">
-        <v>-4482200</v>
+        <v>-6477200</v>
       </c>
       <c r="F91" s="3">
-        <v>-4784500</v>
+        <v>-4507000</v>
       </c>
       <c r="G91" s="3">
-        <v>-5233900</v>
+        <v>-4811000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4204900</v>
+        <v>-5262800</v>
       </c>
       <c r="I91" s="3">
-        <v>-5244500</v>
+        <v>-4228200</v>
       </c>
       <c r="J91" s="3">
+        <v>-5273500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1175100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30693500</v>
+        <v>9146900</v>
       </c>
       <c r="E94" s="3">
-        <v>5255400</v>
+        <v>-30863300</v>
       </c>
       <c r="F94" s="3">
-        <v>47378200</v>
+        <v>5284400</v>
       </c>
       <c r="G94" s="3">
-        <v>-13173000</v>
+        <v>47640200</v>
       </c>
       <c r="H94" s="3">
-        <v>131265500</v>
+        <v>-13245800</v>
       </c>
       <c r="I94" s="3">
-        <v>12727400</v>
+        <v>131991600</v>
       </c>
       <c r="J94" s="3">
+        <v>12797800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-22347400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1975900</v>
+        <v>-2232400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1853900</v>
+        <v>-1986800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1916000</v>
+        <v>-1864200</v>
       </c>
       <c r="G96" s="3">
+        <v>-1926600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-1553600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1545100</v>
       </c>
-      <c r="H96" s="3">
-        <v>-1536600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2444500</v>
-      </c>
       <c r="J96" s="3">
+        <v>-2458000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1283000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3168200</v>
+        <v>-5752300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1505400</v>
+        <v>-3185800</v>
       </c>
       <c r="F100" s="3">
-        <v>-506200</v>
+        <v>-1513700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2735400</v>
+        <v>-509000</v>
       </c>
       <c r="H100" s="3">
-        <v>-9390900</v>
+        <v>-2750500</v>
       </c>
       <c r="I100" s="3">
-        <v>-6688300</v>
+        <v>-9442800</v>
       </c>
       <c r="J100" s="3">
+        <v>-6725300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2759000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-848600</v>
+        <v>1514800</v>
       </c>
       <c r="E101" s="3">
-        <v>-95400</v>
+        <v>-853300</v>
       </c>
       <c r="F101" s="3">
-        <v>-900200</v>
+        <v>-95900</v>
       </c>
       <c r="G101" s="3">
-        <v>1606500</v>
+        <v>-905200</v>
       </c>
       <c r="H101" s="3">
-        <v>50500</v>
+        <v>1615300</v>
       </c>
       <c r="I101" s="3">
-        <v>5645000</v>
+        <v>50700</v>
       </c>
       <c r="J101" s="3">
+        <v>5676200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-557600</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>49762700</v>
+        <v>46703000</v>
       </c>
       <c r="E102" s="3">
-        <v>44491100</v>
+        <v>50037900</v>
       </c>
       <c r="F102" s="3">
-        <v>35781500</v>
+        <v>44737200</v>
       </c>
       <c r="G102" s="3">
-        <v>59713900</v>
+        <v>35979400</v>
       </c>
       <c r="H102" s="3">
-        <v>196991000</v>
+        <v>60044200</v>
       </c>
       <c r="I102" s="3">
-        <v>33139900</v>
+        <v>198080600</v>
       </c>
       <c r="J102" s="3">
+        <v>33323200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-13722100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
